--- a/iOSknowledge.xlsx
+++ b/iOSknowledge.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="0" windowWidth="25600" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="3860" yWindow="0" windowWidth="25600" windowHeight="16440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>point</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,6 +31,195 @@
   </si>
   <si>
     <t>others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIView与CLayer有什么区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdwebimage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afnetworking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他第三方控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程（GCD，NSOperation）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kvo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kvc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instruments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category和extensions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category能否添加属性，方法重名时如何处理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runloup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据本地化存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS11特性，iOS12特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quartz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autolayout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wkwebview和uiwebview的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP / RESTful API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒转 1 个链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查链表中是否存在循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回链表倒数第 N 个元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除链表中的重复元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现广度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现深度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查图是否为树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计图中边的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 Dijkstra 算法查找两个节点之间的最短距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树的分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算树的高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找二叉平衡树中第 K 大的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找树中与根节点距离为 k 的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">查找二叉树中某个节点所有祖先节点
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找数组中对称的组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认某个数组的元素是否为另一个数组元素的子集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认给定的数组是否互斥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,9 +279,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -423,15 +616,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:D5"/>
+  <dimension ref="B5:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" customWidth="1"/>
@@ -446,6 +639,255 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="45">
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/iOSknowledge.xlsx
+++ b/iOSknowledge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="0" windowWidth="25600" windowHeight="16440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1980" yWindow="1260" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>point</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,39 @@
   </si>
   <si>
     <t>确认给定的数组是否互斥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据类型存于栈中，无需内存管理
+MRC：OC对象在堆上申请内存，当持有对象+1时，引用计数+1，持有对象释放时，引用计数-1，引用计数为0时释放
+ARC：在编译时期自动在已有代码中插入合适的内存管理代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UIView 由 CoreAnimation 来实现的。
+UIView的绘图部分由CALayer类来管理
+[view initWithFrame] 的时候调用私有方法【UIView _createLayerWithFrame】去创建 CALayer
+UIView 本身更像是一个 CALayer 的管理器，访问它的跟绘图和跟坐标有关的属性。
+渲染：当更新层，改变不能立即显示在屏幕上。当所有的层都准备好时，可以调用setNeedsDisplay 方法来重绘显示。
+UIView 是 CALayer 的CALayerDelegate
+UIKit使用UIResponder作为响应对象，来响应系统传递过来的事件并进行处理。UIApplication、UIViewController、UIView、和所有从UIView派生出来的UIKit类（包括UIWindow）都直接或间接地继承自UIResponder类。
+在做 iOS 动画的时候，修改非 RootLayer的属性（譬如位置、背景色等）会默认产生隐式动画，而修改UIView则不会，因为UIView 默认情况下禁止了 layer 动画，但是在 animation block 中又重新启用了它们
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次取图片先判断是否在内存中，再到缓存中查找，找到了直接加载，在缓存中找不到才重新下载，url也会记录，是否是失效的url，是则不会再尝试。下载到的图片会缓存，用于下次可以直接加载。图片下载，解码，转换都异步进行，不会阻塞主线程。
+uiimageview的category：UIImageView+WebCache发起下载
+SDWebImageManager调用loadImageWithURL异步下载
+SDImageCache从缓存查找图片是否已经下载queryDiskCacheForKey
+先从内存图片缓存查找是否有图片 
+若内存中找不到，则NSInvocationOperation添加到队列开始从硬盘查找图片是否已经缓存
+若内存和硬盘都找不到则使用SDWebImageDownLoader进行下载，并写入缓存
+下载完成后交给SDWebImageDecoder做图片解码处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cloud.tencent.com/developer/article/1186050</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,6 +260,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -279,11 +315,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,149 +659,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="44" style="3" customWidth="1"/>
+    <col min="3" max="3" width="75.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:4">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
+    <row r="6" spans="2:4" ht="84" customHeight="1">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="331" customHeight="1">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="239" customHeight="1">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="37" customHeight="1">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="35" customHeight="1">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
+    <row r="11" spans="2:4" ht="35" customHeight="1">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
+    <row r="12" spans="2:4" ht="31" customHeight="1">
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -779,7 +834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -868,7 +923,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" ht="45">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
